--- a/Tos.FoodProcs.Web/templates/gekkanSeihinKeikakuTanLine_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/gekkanSeihinKeikakuTanLine_vi.xlsx
@@ -52,34 +52,37 @@
 thực tế</t>
   </si>
   <si>
-    <t>Số mẻ sản xuất</t>
-  </si>
-  <si>
     <t>Bội suất</t>
   </si>
   <si>
     <t>Số lô sản phẩm</t>
   </si>
   <si>
-    <t>Dây chuyền    　 　　     ：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất　 　　　  ：</t>
-  </si>
-  <si>
-    <t>Người xuất      　  　　   ：</t>
-  </si>
-  <si>
-    <t>Bộ phận sản xuất　　 　：</t>
-  </si>
-  <si>
-    <t>Tháng chỉ định        　　 ：</t>
+    <t>Tháng chỉ định</t>
+  </si>
+  <si>
+    <t>Bộ phận sản xuất</t>
+  </si>
+  <si>
+    <t>Dây chuyền</t>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Số mẻ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@* \:"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +298,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,22 +646,22 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
+      <c r="A2" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="10"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="10"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
+      <c r="A4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="10"/>
       <c r="I4" s="8"/>
@@ -666,15 +672,15 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
+      <c r="A6" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="10"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="10"/>
       <c r="I7" s="8"/>
@@ -710,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
